--- a/Actualizado-Curso-Excel.xlsx
+++ b/Actualizado-Curso-Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3370F054-6982-4E5E-8CD2-2274BC368345}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F37EE6-C44D-47F4-ABCF-AED08E1E16D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" xr2:uid="{AB5C0BDB-CE3B-4F14-BC58-C7B1AD4A82DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="601" firstSheet="2" activeTab="3" xr2:uid="{AB5C0BDB-CE3B-4F14-BC58-C7B1AD4A82DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Introducción" sheetId="1" r:id="rId1"/>
@@ -69,12 +69,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3758" uniqueCount="1032">
   <si>
     <t>Primeros pasos:</t>
   </si>
@@ -3903,30 +3914,76 @@
   <si>
     <t xml:space="preserve">Curso de VBA Macros Excel </t>
   </si>
+  <si>
+    <t>Datos de los empleados</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Carrasco</t>
+  </si>
+  <si>
+    <t>S/. 1,000.00</t>
+  </si>
+  <si>
+    <t>Carranza</t>
+  </si>
+  <si>
+    <t>Iberico</t>
+  </si>
+  <si>
+    <t>Mariela</t>
+  </si>
+  <si>
+    <t>Salazar</t>
+  </si>
+  <si>
+    <t>Marcos</t>
+  </si>
+  <si>
+    <t>Baca</t>
+  </si>
+  <si>
+    <t>Luan</t>
+  </si>
+  <si>
+    <t>Larrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de alta </t>
+  </si>
+  <si>
+    <t>Hora de llegada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sueldo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="16">
+  <numFmts count="17">
+    <numFmt numFmtId="42" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;S/&quot;\ * #,##0_-;\-&quot;S/&quot;\ * #,##0_-;_-&quot;S/&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_-[$S/.-280A]* #,##0.00_-;\-[$S/.-280A]* #,##0.00_-;_-[$S/.-280A]* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="170" formatCode="00"/>
-    <numFmt numFmtId="171" formatCode="00.0"/>
-    <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="173" formatCode="0.0%"/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;$&quot;* #,##0;\-&quot;$&quot;* \ #,##0"/>
-    <numFmt numFmtId="177" formatCode="d/mmm/yy"/>
-    <numFmt numFmtId="178" formatCode="[$$-1409]#,##0;\-[$$-1409]#,##0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="_-[$S/.-280A]* #,##0.00_-;\-[$S/.-280A]* #,##0.00_-;_-[$S/.-280A]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;S/.&quot;* #,##0.00_-;\-&quot;S/.&quot;* #,##0.00_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="169" formatCode="00"/>
+    <numFmt numFmtId="170" formatCode="00.0"/>
+    <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="172" formatCode="0.0%"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="&quot;$&quot;* #,##0;\-&quot;$&quot;* \ #,##0"/>
+    <numFmt numFmtId="176" formatCode="d/mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="[$$-1409]#,##0;\-[$$-1409]#,##0"/>
+    <numFmt numFmtId="184" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4462,6 +4519,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="41">
     <fill>
@@ -4705,7 +4778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="75">
+  <borders count="77">
     <border>
       <left/>
       <right/>
@@ -5565,22 +5638,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="490">
+  <cellXfs count="496">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5600,7 +5693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5768,7 +5861,7 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -5836,7 +5929,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5858,7 +5951,7 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5883,25 +5976,25 @@
     <xf numFmtId="0" fontId="26" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="27" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -5915,7 +6008,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5970,7 +6063,7 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="36" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5994,7 +6087,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6031,7 +6124,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6044,7 +6137,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="39" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="39" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6054,7 +6147,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6065,8 +6158,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6078,7 +6171,7 @@
     <xf numFmtId="0" fontId="30" fillId="28" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6093,7 +6186,7 @@
     <xf numFmtId="0" fontId="30" fillId="28" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="28" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="28" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6102,7 +6195,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="28" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6114,7 +6207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6123,16 +6216,16 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="28" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="28" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6147,7 +6240,7 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6157,7 +6250,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -6175,13 +6268,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6213,13 +6306,13 @@
     </xf>
     <xf numFmtId="0" fontId="45" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -6234,7 +6327,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -6280,7 +6373,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6318,10 +6411,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6365,11 +6458,11 @@
     <xf numFmtId="0" fontId="52" fillId="33" borderId="67" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="67" xfId="8" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="52" fillId="33" borderId="68" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="52" fillId="33" borderId="68" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="52" fillId="33" borderId="68" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="33" borderId="69" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="52" fillId="33" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="52" fillId="33" borderId="69" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="52" fillId="33" borderId="70" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="52" fillId="33" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="52" fillId="33" borderId="70" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="65" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="66" xfId="7" applyBorder="1"/>
@@ -6400,12 +6493,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="5" borderId="70" xfId="8" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="54" fillId="5" borderId="70" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="54" fillId="5" borderId="70" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="54" fillId="5" borderId="70" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="27" fillId="0" borderId="0" xfId="8" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6413,8 +6506,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="8" applyBorder="1"/>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="69" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="69" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="69" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="69" xfId="8" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6424,7 +6517,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="69" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="69" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="62" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -6438,10 +6531,10 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="69" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="69" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="69" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="69" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="69" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="63" xfId="7" applyBorder="1" applyAlignment="1">
@@ -6454,8 +6547,8 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="70" xfId="9" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="27" fillId="0" borderId="70" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="27" fillId="0" borderId="70" xfId="8" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="27" fillId="0" borderId="70" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="27" fillId="0" borderId="70" xfId="8" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="37" xfId="8" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="38" xfId="8" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="35" borderId="39" xfId="8" applyFill="1" applyBorder="1"/>
@@ -6495,7 +6588,7 @@
     <xf numFmtId="0" fontId="62" fillId="37" borderId="70" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="0" borderId="70" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="27" fillId="0" borderId="70" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -6519,7 +6612,7 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="51" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="51" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
@@ -6558,7 +6651,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6567,7 +6660,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -6576,13 +6669,13 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -6605,6 +6698,27 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="35" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="35" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="35" borderId="41" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="36" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6633,46 +6747,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="35" borderId="40" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="35" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="35" borderId="41" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="36" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6711,6 +6804,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="72" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="72" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="72" fillId="2" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Hipervínculo" xfId="11" builtinId="8"/>
@@ -6728,7 +6837,17 @@
   </cellStyles>
   <dxfs count="65">
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6738,7 +6857,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6746,7 +6865,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6759,11 +6878,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6773,22 +6892,22 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6804,7 +6923,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -6824,7 +6943,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -6861,7 +6980,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -6871,7 +6990,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -6887,7 +7006,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6897,7 +7016,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6905,7 +7024,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6918,11 +7037,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="179" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -6932,10 +7051,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="178" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="172" formatCode="yyyy\-mm\-dd;@"/>
+      <numFmt numFmtId="171" formatCode="yyyy\-mm\-dd;@"/>
     </dxf>
     <dxf>
       <font>
@@ -6991,7 +7110,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -7029,7 +7148,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="179" formatCode="d/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -7212,16 +7331,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <color theme="1"/>
       </font>
@@ -7260,6 +7369,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
       <color rgb="FFF7F2F8"/>
       <color rgb="FFE9EDF7"/>
       <color rgb="FFF7F7F7"/>
@@ -7542,7 +7652,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Actualizado-Curso-Excel-2023-Version-1.2.xlsx]TD!TablaDinámica6</c:name>
+    <c:name>[Actualizado-Curso-Excel.xlsx]TD!TablaDinámica6</c:name>
     <c:fmtId val="24"/>
   </c:pivotSource>
   <c:chart>
@@ -8550,7 +8660,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Actualizado-Curso-Excel-2023-Version-1.2.xlsx]TD!TablaDinámica1</c:name>
+    <c:name>[Actualizado-Curso-Excel.xlsx]TD!TablaDinámica1</c:name>
     <c:fmtId val="17"/>
   </c:pivotSource>
   <c:chart>
@@ -9007,7 +9117,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Actualizado-Curso-Excel-2023-Version-1.2.xlsx]TD!TablaDinámica4</c:name>
+    <c:name>[Actualizado-Curso-Excel.xlsx]TD!TablaDinámica4</c:name>
     <c:fmtId val="69"/>
   </c:pivotSource>
   <c:chart>
@@ -12200,8 +12310,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2905126" y="380626"/>
-          <a:ext cx="2343150" cy="1219574"/>
+          <a:off x="2913785" y="377740"/>
+          <a:ext cx="2351809" cy="1199369"/>
           <a:chOff x="2977645" y="1104526"/>
           <a:chExt cx="1981376" cy="952874"/>
         </a:xfrm>
@@ -12558,8 +12668,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2876557" y="1637926"/>
-          <a:ext cx="2343150" cy="1237485"/>
+          <a:off x="2885216" y="1614835"/>
+          <a:ext cx="2351809" cy="1217281"/>
           <a:chOff x="2301081" y="1104526"/>
           <a:chExt cx="1981376" cy="966868"/>
         </a:xfrm>
@@ -13035,8 +13145,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2857501" y="4247776"/>
-          <a:ext cx="2581274" cy="1219574"/>
+          <a:off x="2866160" y="4184276"/>
+          <a:ext cx="2592820" cy="1202256"/>
           <a:chOff x="2977645" y="1104526"/>
           <a:chExt cx="1981376" cy="952874"/>
         </a:xfrm>
@@ -13321,8 +13431,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2838451" y="5476501"/>
-          <a:ext cx="2714624" cy="1247010"/>
+          <a:off x="2847110" y="5395683"/>
+          <a:ext cx="2726170" cy="1226805"/>
           <a:chOff x="2977645" y="1044990"/>
           <a:chExt cx="1981376" cy="974310"/>
         </a:xfrm>
@@ -15512,8 +15622,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7029450" y="436775"/>
-          <a:ext cx="2343150" cy="1219574"/>
+          <a:off x="7055427" y="431002"/>
+          <a:ext cx="2351809" cy="1202256"/>
           <a:chOff x="3042077" y="1372438"/>
           <a:chExt cx="1981376" cy="952874"/>
         </a:xfrm>
@@ -15790,8 +15900,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7019924" y="1647825"/>
-          <a:ext cx="2847975" cy="1219574"/>
+          <a:off x="7045901" y="1624734"/>
+          <a:ext cx="2856634" cy="1199370"/>
           <a:chOff x="3057168" y="1409648"/>
           <a:chExt cx="1981376" cy="952874"/>
         </a:xfrm>
@@ -16181,8 +16291,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7038975" y="2819400"/>
-          <a:ext cx="2847975" cy="1219574"/>
+          <a:off x="7064952" y="2778991"/>
+          <a:ext cx="2856634" cy="1199369"/>
           <a:chOff x="2977645" y="1104526"/>
           <a:chExt cx="1981376" cy="952874"/>
         </a:xfrm>
@@ -16505,8 +16615,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7058025" y="3971925"/>
-          <a:ext cx="2733675" cy="1219574"/>
+          <a:off x="7084002" y="3914198"/>
+          <a:ext cx="2742334" cy="1199369"/>
           <a:chOff x="2977645" y="1067316"/>
           <a:chExt cx="1981376" cy="952874"/>
         </a:xfrm>
@@ -19371,8 +19481,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19946,15 +20056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>209549</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -19969,7 +20079,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11744325" y="276225"/>
+          <a:off x="10677525" y="295275"/>
           <a:ext cx="2686050" cy="1438274"/>
           <a:chOff x="11668125" y="276225"/>
           <a:chExt cx="2686050" cy="1438274"/>
@@ -29597,7 +29707,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>S/ 34,25</a:t>
+            <a:t>S/ 34.25</a:t>
           </a:fld>
           <a:endParaRPr lang="es-PE" sz="1200" b="1">
             <a:solidFill>
@@ -30227,7 +30337,7 @@
               <a:cs typeface="Calibri"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>S/ 685,00</a:t>
+            <a:t>S/ 685.00</a:t>
           </a:fld>
           <a:endParaRPr lang="es-PE" sz="1600" b="1">
             <a:solidFill>
@@ -34775,16 +34885,16 @@
         <s v="Postre"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Precio " numFmtId="165">
+    <cacheField name="Precio " numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="35"/>
     </cacheField>
     <cacheField name="Cantidad" numFmtId="2">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
     </cacheField>
-    <cacheField name="Costo" numFmtId="165">
+    <cacheField name="Costo" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="25"/>
     </cacheField>
-    <cacheField name="Propina" numFmtId="165">
+    <cacheField name="Propina" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.4" maxValue="1.75"/>
     </cacheField>
     <cacheField name="Tipo Cliente" numFmtId="0">
@@ -34793,7 +34903,7 @@
         <s v="Frecuente"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Total" numFmtId="165">
+    <cacheField name="Total" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="35"/>
     </cacheField>
     <cacheField name="Años" numFmtId="0" databaseField="0">
@@ -35331,140 +35441,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EAF5C1DA-DA08-4C43-AD4B-911352515EF6}" name="TablaDinámica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L27:M30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de Tipo Cliente" fld="9" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C337677C-1174-48D9-A74C-A84D6A730453}" name="TablaDinámica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F33:F34" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Propina" fld="8" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="13">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4EC477B-BE0B-4864-A15E-97247A21177A}" name="TablaDinámica5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="I3:J6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -35500,10 +35476,10 @@
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
         <item x="1"/>
@@ -35511,7 +35487,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0">
       <items count="7">
         <item x="0"/>
@@ -35556,492 +35532,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC3C3961-4747-42DC-B8A2-B3E90DD054B1}" name="TablaDinámica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F27:F28" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Total" fld="10" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7A28A76-C897-462C-A477-F25C20ADF846}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="F3:G7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Cantidad" fld="6" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53711DD9-D6AE-417D-B7C8-43F28A57B836}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Total" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="15">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="9" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="17" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4174DD79-B797-4416-9439-B10AD07DA84D}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
-  <location ref="A13:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisRow" numFmtId="14" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField dataField="1" numFmtId="9" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="11"/>
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Suma de Propina" fld="8" baseField="0" baseItem="0" numFmtId="166"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="9" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="11" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="15" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2D0538D7-A910-42A5-A238-C67175F3AE69}" name="TablaDinámica6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
   <location ref="I13:J23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -36086,10 +35577,10 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
@@ -36097,7 +35588,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="7">
         <item x="0"/>
@@ -36159,10 +35650,10 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Suma de Total" fld="10" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="Suma de Total" fld="10" baseField="0" baseItem="0" numFmtId="165"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="17">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -36273,7 +35764,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A0DD0421-1DBE-4B72-99F5-430612F832DC}" name="TablaDinámica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="70">
   <location ref="F13:G23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
@@ -36331,10 +35822,10 @@
       </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField dataField="1" numFmtId="2" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
@@ -36342,7 +35833,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0">
       <items count="7">
         <item x="0"/>
@@ -36446,6 +35937,625 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FC3C3961-4747-42DC-B8A2-B3E90DD054B1}" name="TablaDinámica7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F27:F28" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Total" fld="10" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E7A28A76-C897-462C-A477-F25C20ADF846}" name="TablaDinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="F3:G7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Cantidad" fld="6" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53711DD9-D6AE-417D-B7C8-43F28A57B836}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Total" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="16">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="9" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EAF5C1DA-DA08-4C43-AD4B-911352515EF6}" name="TablaDinámica8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L27:M30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de Tipo Cliente" fld="9" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C337677C-1174-48D9-A74C-A84D6A730453}" name="TablaDinámica9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F33:F34" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Propina" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="17">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4174DD79-B797-4416-9439-B10AD07DA84D}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="18">
+  <location ref="A13:B23" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" numFmtId="14" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField dataField="1" numFmtId="9" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="165" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="11"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Suma de Propina" fld="8" baseField="0" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Fecha" xr10:uid="{90219733-ED98-4614-9D0B-7A8430299BD7}" sourceName="Años">
   <pivotTables>
@@ -36514,20 +36624,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7961617F-1F26-4596-824E-40BF7391EB55}" name="Tabla4" displayName="Tabla4" ref="J11:Q30" headerRowDxfId="61" totalsRowDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7961617F-1F26-4596-824E-40BF7391EB55}" name="Tabla4" displayName="Tabla4" ref="J11:Q30" headerRowDxfId="62" totalsRowDxfId="61">
   <autoFilter ref="J11:Q30" xr:uid="{8A494E5D-B109-4172-AF0B-E73C6C283B70}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J12:P30">
     <sortCondition ref="O11:O30"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4940B43F-FCAA-4EC8-A9B9-05EFB08550C2}" name="Código" totalsRowLabel="Total" totalsRowDxfId="59"/>
-    <tableColumn id="2" xr3:uid="{2BCD6374-12C9-4254-9F6E-DA4CA2CD1D86}" name="Cliente" totalsRowDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{5D40E4C1-C561-4429-81C3-BD6A72AD7CFE}" name="País Destinatario" totalsRowDxfId="57"/>
-    <tableColumn id="4" xr3:uid="{F8D8DFE3-81D1-4D21-B7A1-7DE78FBACFED}" name="Categoría Producto" totalsRowDxfId="56"/>
-    <tableColumn id="5" xr3:uid="{A783B6DE-3F7C-48DC-8173-A8532E8DA893}" name="Nombre Producto" totalsRowDxfId="55"/>
-    <tableColumn id="6" xr3:uid="{592E0DB8-D75A-480A-8B0D-55899B7489F0}" name="Precio Unidad" totalsRowFunction="min" totalsRowDxfId="54"/>
-    <tableColumn id="7" xr3:uid="{FC2CE7F3-50E8-446D-8D53-533349D9988D}" name="Cantidad" totalsRowFunction="sum" totalsRowDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{8B880003-55D7-40BA-BCCF-50CF71CD62BF}" name="Total" totalsRowFunction="max" dataDxfId="52" totalsRowDxfId="51">
+    <tableColumn id="1" xr3:uid="{4940B43F-FCAA-4EC8-A9B9-05EFB08550C2}" name="Código" totalsRowLabel="Total" totalsRowDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{2BCD6374-12C9-4254-9F6E-DA4CA2CD1D86}" name="Cliente" totalsRowDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{5D40E4C1-C561-4429-81C3-BD6A72AD7CFE}" name="País Destinatario" totalsRowDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{F8D8DFE3-81D1-4D21-B7A1-7DE78FBACFED}" name="Categoría Producto" totalsRowDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{A783B6DE-3F7C-48DC-8173-A8532E8DA893}" name="Nombre Producto" totalsRowDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{592E0DB8-D75A-480A-8B0D-55899B7489F0}" name="Precio Unidad" totalsRowFunction="min" totalsRowDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{FC2CE7F3-50E8-446D-8D53-533349D9988D}" name="Cantidad" totalsRowFunction="sum" totalsRowDxfId="54"/>
+    <tableColumn id="9" xr3:uid="{8B880003-55D7-40BA-BCCF-50CF71CD62BF}" name="Total" totalsRowFunction="max" dataDxfId="53" totalsRowDxfId="52">
       <calculatedColumnFormula>Tabla4[[#This Row],[Precio Unidad]]*Tabla4[[#This Row],[Cantidad]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -36536,12 +36646,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{68515F9B-538E-4476-A80E-25C2D467C4CE}" name="Tabla5" displayName="Tabla5" ref="B14:F46" totalsRowShown="0" headerRowDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{68515F9B-538E-4476-A80E-25C2D467C4CE}" name="Tabla5" displayName="Tabla5" ref="B14:F46" totalsRowShown="0" headerRowDxfId="51" tableBorderDxfId="50">
   <autoFilter ref="B14:F46" xr:uid="{68515F9B-538E-4476-A80E-25C2D467C4CE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E174B1D8-2E1D-4AA5-9FB1-D86F01CE252E}" name="Fecha" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{EC1D650E-28C9-445D-9FA2-F97A762C1F61}" name="Vendedor" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{DF400C9E-B944-48C1-B36D-9CFF22A7CC79}" name="Tienda" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{E174B1D8-2E1D-4AA5-9FB1-D86F01CE252E}" name="Fecha" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{EC1D650E-28C9-445D-9FA2-F97A762C1F61}" name="Vendedor" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{DF400C9E-B944-48C1-B36D-9CFF22A7CC79}" name="Tienda" dataDxfId="47"/>
     <tableColumn id="4" xr3:uid="{77F1C1D4-DE75-4C1F-9EAD-9160F946A4FB}" name="Producto"/>
     <tableColumn id="5" xr3:uid="{79B1227E-B07E-428B-B252-121AC75282DB}" name="Importe"/>
   </tableColumns>
@@ -36553,7 +36663,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4577FCD9-A6D4-4260-9AFC-8BEAEA207466}" name="Tabla13" displayName="Tabla13" ref="B9:K285" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{188969F1-8C77-49C8-9BE7-D5816A724F5F}" name="Código"/>
-    <tableColumn id="2" xr3:uid="{1F74AC9C-7BB7-454B-9C9B-0A15038A839A}" name="Fecha Venta" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{1F74AC9C-7BB7-454B-9C9B-0A15038A839A}" name="Fecha Venta" dataDxfId="46"/>
     <tableColumn id="3" xr3:uid="{44E5DDBB-99DB-48AA-82CF-E9768DE0966A}" name="Cliente"/>
     <tableColumn id="4" xr3:uid="{FB88D98A-836E-4CE6-9829-FED8286C9B73}" name="País Destinatario"/>
     <tableColumn id="5" xr3:uid="{AE4EBD00-B9BD-44E1-94D7-BC932D408C58}" name="Categoría Producto"/>
@@ -36571,7 +36681,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A391A1EE-186E-4643-A0E4-C2376BD43C4F}" name="Tabla2" displayName="Tabla2" ref="B7:F39" totalsRowShown="0">
   <autoFilter ref="B7:F39" xr:uid="{574758BF-737E-449E-89F7-8961581FC1E4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{31DBA1EF-A50C-4463-8374-ED619588A9B0}" name="Fecha" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{31DBA1EF-A50C-4463-8374-ED619588A9B0}" name="Fecha" dataDxfId="45"/>
     <tableColumn id="2" xr3:uid="{ACB52D1A-40B9-41A8-B902-BBA5BE5249F5}" name="Vendedor"/>
     <tableColumn id="3" xr3:uid="{222659C5-70F4-4198-A631-766A8FADF7C4}" name="Tienda"/>
     <tableColumn id="4" xr3:uid="{CC41716D-869B-428E-82A7-A7499315D373}" name="Producto"/>
@@ -36582,21 +36692,21 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31AA622A-5753-4464-8759-74D841379E1D}" name="Tabla14" displayName="Tabla14" ref="C4:M43" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{31AA622A-5753-4464-8759-74D841379E1D}" name="Tabla14" displayName="Tabla14" ref="C4:M43" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{EDFA7370-3C8E-49DC-BC48-9E80F3639673}" name="Fecha" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{A877D47D-3E23-496E-A257-044FD72408A4}" name="Atendió" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{8A8EB033-E73F-4014-8167-A9EF613530F2}" name="Mesa" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{48A8FB6F-EA49-4F7C-9192-8A1301BFCFE6}" name="Producto" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{BECDFD47-1D5E-4D74-9BCD-2C4C77FC3AEF}" name="Categoría" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{F0CE7F31-6726-424D-81DB-A8BAC39BBE2F}" name="Precio " dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{3B02D9BF-C8F2-4F00-9AAF-0440B66ACFEE}" name="Cantidad" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{A5983BF9-B873-4EEC-BBA4-776A92BB7560}" name="Costo" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{8FC80B92-3820-4156-917A-5B3F8841E738}" name="Propina" dataDxfId="33" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{EDFA7370-3C8E-49DC-BC48-9E80F3639673}" name="Fecha" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{A877D47D-3E23-496E-A257-044FD72408A4}" name="Atendió" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{8A8EB033-E73F-4014-8167-A9EF613530F2}" name="Mesa" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{48A8FB6F-EA49-4F7C-9192-8A1301BFCFE6}" name="Producto" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{BECDFD47-1D5E-4D74-9BCD-2C4C77FC3AEF}" name="Categoría" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{F0CE7F31-6726-424D-81DB-A8BAC39BBE2F}" name="Precio " dataDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{3B02D9BF-C8F2-4F00-9AAF-0440B66ACFEE}" name="Cantidad" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{A5983BF9-B873-4EEC-BBA4-776A92BB7560}" name="Costo" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{8FC80B92-3820-4156-917A-5B3F8841E738}" name="Propina" dataDxfId="34" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>5%*Tabla14[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0CCD235D-0C4D-45A4-A64F-5CA8ED4E10AA}" name="Tipo Cliente" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{1770C7DF-4F30-443E-AFC1-B2FFE5DBAADF}" name="Total" dataDxfId="31">
+    <tableColumn id="9" xr3:uid="{0CCD235D-0C4D-45A4-A64F-5CA8ED4E10AA}" name="Tipo Cliente" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{1770C7DF-4F30-443E-AFC1-B2FFE5DBAADF}" name="Total" dataDxfId="32">
       <calculatedColumnFormula>Tabla14[[#This Row],[Precio ]]*Tabla14[[#This Row],[Cantidad]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -36605,21 +36715,21 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EA8BE91C-1B74-4218-BF61-3F82647E5465}" name="Tabla148" displayName="Tabla148" ref="P39:Z78" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EA8BE91C-1B74-4218-BF61-3F82647E5465}" name="Tabla148" displayName="Tabla148" ref="P39:Z78" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{4C564C60-27C6-4141-A4BD-8E8E639527F3}" name="Fecha" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{5B01CC78-07A0-4AC9-BEE4-8BA99832FC95}" name="Atendió" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{2CF75C9B-7FF8-4A2E-9074-2C69F6A7E035}" name="Mesa" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{79737A35-C55C-453D-BC69-3ADBD7EDAB05}" name="Producto" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{4AA7DA00-AFAE-49D1-BA92-8D84DB1FDCBD}" name="Categoría" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{97BAAF6A-B6E6-4342-A425-A8F553B6E4C5}" name="Precio " dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{021261C7-1FD2-44EF-9209-864CF3641CD2}" name="Cantidad" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{83D62BF2-5AFE-43B9-A146-2B834314026A}" name="Costo" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{4E6B1A93-FADD-432F-B3D4-AED32FF6B55D}" name="Propina" dataDxfId="20" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{4C564C60-27C6-4141-A4BD-8E8E639527F3}" name="Fecha" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{5B01CC78-07A0-4AC9-BEE4-8BA99832FC95}" name="Atendió" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{2CF75C9B-7FF8-4A2E-9074-2C69F6A7E035}" name="Mesa" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{79737A35-C55C-453D-BC69-3ADBD7EDAB05}" name="Producto" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{4AA7DA00-AFAE-49D1-BA92-8D84DB1FDCBD}" name="Categoría" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{97BAAF6A-B6E6-4342-A425-A8F553B6E4C5}" name="Precio " dataDxfId="24"/>
+    <tableColumn id="10" xr3:uid="{021261C7-1FD2-44EF-9209-864CF3641CD2}" name="Cantidad" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{83D62BF2-5AFE-43B9-A146-2B834314026A}" name="Costo" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{4E6B1A93-FADD-432F-B3D4-AED32FF6B55D}" name="Propina" dataDxfId="21" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>5%*Tabla148[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1ABBBEDC-6DF4-49C7-85EA-D4BE0BB9D07C}" name="Tipo Cliente" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{C395B153-FBB5-4C8B-8B06-534C1752046C}" name="Total" dataDxfId="18">
+    <tableColumn id="9" xr3:uid="{1ABBBEDC-6DF4-49C7-85EA-D4BE0BB9D07C}" name="Tipo Cliente" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{C395B153-FBB5-4C8B-8B06-534C1752046C}" name="Total" dataDxfId="19">
       <calculatedColumnFormula>Tabla148[[#This Row],[Precio ]]*Tabla148[[#This Row],[Cantidad]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -36628,22 +36738,22 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{60C74A9E-300E-47A6-BA34-CEB3186A49F9}" name="Tabla1" displayName="Tabla1" ref="A1:K40" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{60C74A9E-300E-47A6-BA34-CEB3186A49F9}" name="Tabla1" displayName="Tabla1" ref="A1:K40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:K40" xr:uid="{1D5FDF34-A56B-403F-BE40-7A078A8C9566}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{93CE25AD-86BD-4CB7-BEE0-E36A172D8C1A}" name="Fecha" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{9D81BC81-2694-4AEA-98B4-701780BA2492}" name="Atendió" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{649ECF71-84CC-4A4D-8377-7AA92D7B6146}" name="Mesa" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B44A00F2-FFCB-402B-938B-975861634240}" name="Producto" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{0EFA6AC1-398A-4B89-BCE6-E545A57EF838}" name="Categoría" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{3FB2A144-4259-4CBF-A27D-C6D7A46E4EFF}" name="Precio " dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{5CA862E4-0E02-4757-8E59-653D4F11EA4F}" name="Cantidad" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{7CA1B225-A35C-47E2-918F-4800C3EF4C9B}" name="Costo" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{86AC6122-0515-4B86-B6D0-40ADB242E048}" name="Propina" dataDxfId="2" dataCellStyle="Porcentaje">
+    <tableColumn id="1" xr3:uid="{93CE25AD-86BD-4CB7-BEE0-E36A172D8C1A}" name="Fecha" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{9D81BC81-2694-4AEA-98B4-701780BA2492}" name="Atendió" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{649ECF71-84CC-4A4D-8377-7AA92D7B6146}" name="Mesa" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B44A00F2-FFCB-402B-938B-975861634240}" name="Producto" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{0EFA6AC1-398A-4B89-BCE6-E545A57EF838}" name="Categoría" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{3FB2A144-4259-4CBF-A27D-C6D7A46E4EFF}" name="Precio " dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{5CA862E4-0E02-4757-8E59-653D4F11EA4F}" name="Cantidad" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{7CA1B225-A35C-47E2-918F-4800C3EF4C9B}" name="Costo" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{86AC6122-0515-4B86-B6D0-40ADB242E048}" name="Propina" dataDxfId="3" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>5%*Tabla1[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B78EB83E-D616-45F5-876C-104B16B34659}" name="Tipo Cliente" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{B1012A13-40B5-4749-909B-CD17C658AEF8}" name="Total" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{B78EB83E-D616-45F5-876C-104B16B34659}" name="Tipo Cliente" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{B1012A13-40B5-4749-909B-CD17C658AEF8}" name="Total" dataDxfId="1">
       <calculatedColumnFormula>Tabla1[[#This Row],[Precio ]]*Tabla1[[#This Row],[Cantidad]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -36652,9 +36762,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -36692,7 +36802,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -36798,7 +36908,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -36940,7 +37050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -36951,8 +37061,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48132,13 +48242,18 @@
   <sheetPr codeName="Hoja14"/>
   <dimension ref="B2:P201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
@@ -48156,7 +48271,15 @@
       <c r="O8" s="251"/>
       <c r="P8" s="251"/>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="491" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C9" s="491"/>
+      <c r="D9" s="491"/>
+      <c r="E9" s="491"/>
+      <c r="F9" s="491"/>
+      <c r="G9" s="491"/>
       <c r="I9" s="251"/>
       <c r="J9" s="251"/>
       <c r="K9" s="251"/>
@@ -48166,7 +48289,25 @@
       <c r="O9" s="251"/>
       <c r="P9" s="251"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="492" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="492" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="492" t="s">
+        <v>291</v>
+      </c>
+      <c r="E10" s="492" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F10" s="492" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G10" s="492" t="s">
+        <v>1031</v>
+      </c>
       <c r="I10" s="251"/>
       <c r="J10" s="251"/>
       <c r="K10" s="251"/>
@@ -48176,7 +48317,25 @@
       <c r="O10" s="251"/>
       <c r="P10" s="251"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="492">
+        <v>1</v>
+      </c>
+      <c r="C11" s="492" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D11" s="492" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E11" s="493">
+        <v>44986</v>
+      </c>
+      <c r="F11" s="494">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G11" s="495" t="s">
+        <v>1020</v>
+      </c>
       <c r="I11" s="251"/>
       <c r="J11" s="251"/>
       <c r="K11" s="251"/>
@@ -48186,7 +48345,25 @@
       <c r="O11" s="251"/>
       <c r="P11" s="251"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="492">
+        <v>2</v>
+      </c>
+      <c r="C12" s="492" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="492" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E12" s="493">
+        <v>44986</v>
+      </c>
+      <c r="F12" s="494">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G12" s="495">
+        <v>1500</v>
+      </c>
       <c r="I12" s="251"/>
       <c r="J12" s="251"/>
       <c r="K12" s="251"/>
@@ -48196,7 +48373,25 @@
       <c r="O12" s="251"/>
       <c r="P12" s="251"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="492">
+        <v>3</v>
+      </c>
+      <c r="C13" s="492" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="492" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E13" s="493">
+        <v>44986</v>
+      </c>
+      <c r="F13" s="494">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G13" s="495">
+        <v>1200</v>
+      </c>
       <c r="I13" s="251"/>
       <c r="J13" s="251"/>
       <c r="K13" s="251"/>
@@ -48206,7 +48401,25 @@
       <c r="O13" s="251"/>
       <c r="P13" s="251"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="492">
+        <v>4</v>
+      </c>
+      <c r="C14" s="492" t="s">
+        <v>770</v>
+      </c>
+      <c r="D14" s="492" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="493">
+        <v>45047</v>
+      </c>
+      <c r="F14" s="494">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G14" s="495">
+        <v>1300</v>
+      </c>
       <c r="I14" s="251"/>
       <c r="J14" s="251"/>
       <c r="K14" s="251"/>
@@ -48216,7 +48429,25 @@
       <c r="O14" s="251"/>
       <c r="P14" s="251"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="492">
+        <v>5</v>
+      </c>
+      <c r="C15" s="492" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D15" s="492" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E15" s="493">
+        <v>45047</v>
+      </c>
+      <c r="F15" s="494">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G15" s="495">
+        <v>1400</v>
+      </c>
       <c r="I15" s="251"/>
       <c r="J15" s="251"/>
       <c r="K15" s="251"/>
@@ -48226,7 +48457,25 @@
       <c r="O15" s="251"/>
       <c r="P15" s="251"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="492">
+        <v>6</v>
+      </c>
+      <c r="C16" s="492" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D16" s="492" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E16" s="493">
+        <v>45047</v>
+      </c>
+      <c r="F16" s="494">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G16" s="495">
+        <v>1200</v>
+      </c>
       <c r="I16" s="251"/>
       <c r="J16" s="251"/>
       <c r="K16" s="251"/>
@@ -48236,7 +48485,25 @@
       <c r="O16" s="251"/>
       <c r="P16" s="251"/>
     </row>
-    <row r="17" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="492">
+        <v>7</v>
+      </c>
+      <c r="C17" s="492" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D17" s="492" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E17" s="493">
+        <v>45078</v>
+      </c>
+      <c r="F17" s="494">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G17" s="495">
+        <v>1500</v>
+      </c>
       <c r="I17" s="251"/>
       <c r="J17" s="251"/>
       <c r="K17" s="251"/>
@@ -48246,7 +48513,9 @@
       <c r="O17" s="251"/>
       <c r="P17" s="251"/>
     </row>
-    <row r="18" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="490"/>
+      <c r="D18" s="490"/>
       <c r="I18" s="251"/>
       <c r="J18" s="251"/>
       <c r="K18" s="251"/>
@@ -48256,7 +48525,7 @@
       <c r="O18" s="251"/>
       <c r="P18" s="251"/>
     </row>
-    <row r="19" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I19" s="251"/>
       <c r="J19" s="251"/>
       <c r="K19" s="251"/>
@@ -48266,7 +48535,7 @@
       <c r="O19" s="251"/>
       <c r="P19" s="251"/>
     </row>
-    <row r="20" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I20" s="251"/>
       <c r="J20" s="251"/>
       <c r="K20" s="251"/>
@@ -48276,7 +48545,7 @@
       <c r="O20" s="251"/>
       <c r="P20" s="251"/>
     </row>
-    <row r="21" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I21" s="251"/>
       <c r="J21" s="251"/>
       <c r="K21" s="251"/>
@@ -48286,7 +48555,7 @@
       <c r="O21" s="251"/>
       <c r="P21" s="251"/>
     </row>
-    <row r="22" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I22" s="251"/>
       <c r="J22" s="251"/>
       <c r="K22" s="251"/>
@@ -48296,7 +48565,7 @@
       <c r="O22" s="251"/>
       <c r="P22" s="251"/>
     </row>
-    <row r="23" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I23" s="251"/>
       <c r="J23" s="251"/>
       <c r="K23" s="251"/>
@@ -48306,7 +48575,7 @@
       <c r="O23" s="251"/>
       <c r="P23" s="251"/>
     </row>
-    <row r="24" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I24" s="251"/>
       <c r="J24" s="251"/>
       <c r="K24" s="251"/>
@@ -48316,7 +48585,7 @@
       <c r="O24" s="251"/>
       <c r="P24" s="251"/>
     </row>
-    <row r="25" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I25" s="251"/>
       <c r="J25" s="251"/>
       <c r="K25" s="251"/>
@@ -48326,7 +48595,7 @@
       <c r="O25" s="251"/>
       <c r="P25" s="251"/>
     </row>
-    <row r="26" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I26" s="251"/>
       <c r="J26" s="251"/>
       <c r="K26" s="251"/>
@@ -48336,7 +48605,7 @@
       <c r="O26" s="251"/>
       <c r="P26" s="251"/>
     </row>
-    <row r="27" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I27" s="251"/>
       <c r="J27" s="251"/>
       <c r="K27" s="251"/>
@@ -48346,7 +48615,7 @@
       <c r="O27" s="251"/>
       <c r="P27" s="251"/>
     </row>
-    <row r="28" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I28" s="251"/>
       <c r="J28" s="251"/>
       <c r="K28" s="251"/>
@@ -48356,7 +48625,7 @@
       <c r="O28" s="251"/>
       <c r="P28" s="251"/>
     </row>
-    <row r="29" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I29" s="251"/>
       <c r="J29" s="251"/>
       <c r="K29" s="251"/>
@@ -48366,7 +48635,7 @@
       <c r="O29" s="251"/>
       <c r="P29" s="251"/>
     </row>
-    <row r="30" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I30" s="251"/>
       <c r="J30" s="251"/>
       <c r="K30" s="251"/>
@@ -48376,7 +48645,7 @@
       <c r="O30" s="251"/>
       <c r="P30" s="251"/>
     </row>
-    <row r="31" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I31" s="251"/>
       <c r="J31" s="251"/>
       <c r="K31" s="251"/>
@@ -48386,7 +48655,7 @@
       <c r="O31" s="251"/>
       <c r="P31" s="251"/>
     </row>
-    <row r="32" spans="9:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I32" s="251"/>
       <c r="J32" s="251"/>
       <c r="K32" s="251"/>
@@ -50147,6 +50416,9 @@
       <c r="P201" s="251"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:G9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -50158,9 +50430,7 @@
   <sheetPr codeName="Hoja15"/>
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -50489,7 +50759,7 @@
   <sheetPr codeName="Hoja16"/>
   <dimension ref="B1:X167"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -56777,7 +57047,7 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -62804,7 +63074,9 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="C2:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -62906,7 +63178,7 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="B2:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -64315,7 +64587,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B80:B85">
-    <cfRule type="duplicateValues" dxfId="62" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -64350,14 +64622,14 @@
       </c>
     </row>
     <row r="4" spans="2:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="455" t="s">
+      <c r="B4" s="462" t="s">
         <v>702</v>
       </c>
-      <c r="C4" s="455"/>
-      <c r="D4" s="455"/>
-      <c r="E4" s="455"/>
-      <c r="F4" s="455"/>
-      <c r="G4" s="455"/>
+      <c r="C4" s="462"/>
+      <c r="D4" s="462"/>
+      <c r="E4" s="462"/>
+      <c r="F4" s="462"/>
+      <c r="G4" s="462"/>
     </row>
     <row r="5" spans="2:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="50"/>
@@ -65946,59 +66218,59 @@
       <c r="H124" s="48"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="458" t="s">
+      <c r="B125" s="465" t="s">
         <v>211</v>
       </c>
-      <c r="C125" s="458" t="s">
+      <c r="C125" s="465" t="s">
         <v>212</v>
       </c>
-      <c r="D125" s="458"/>
-      <c r="E125" s="458" t="s">
+      <c r="D125" s="465"/>
+      <c r="E125" s="465" t="s">
         <v>213</v>
       </c>
-      <c r="F125" s="458"/>
-      <c r="G125" s="459"/>
-      <c r="H125" s="459"/>
+      <c r="F125" s="465"/>
+      <c r="G125" s="466"/>
+      <c r="H125" s="466"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="458"/>
-      <c r="C126" s="458"/>
-      <c r="D126" s="458"/>
-      <c r="E126" s="458"/>
-      <c r="F126" s="458"/>
-      <c r="G126" s="459"/>
-      <c r="H126" s="459"/>
+      <c r="B126" s="465"/>
+      <c r="C126" s="465"/>
+      <c r="D126" s="465"/>
+      <c r="E126" s="465"/>
+      <c r="F126" s="465"/>
+      <c r="G126" s="466"/>
+      <c r="H126" s="466"/>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B127" s="460" t="s">
+      <c r="B127" s="467" t="s">
         <v>214</v>
       </c>
-      <c r="C127" s="461"/>
-      <c r="D127" s="461"/>
-      <c r="E127" s="461"/>
-      <c r="F127" s="461"/>
-      <c r="G127" s="459"/>
-      <c r="H127" s="459"/>
+      <c r="C127" s="468"/>
+      <c r="D127" s="468"/>
+      <c r="E127" s="468"/>
+      <c r="F127" s="468"/>
+      <c r="G127" s="466"/>
+      <c r="H127" s="466"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B128" s="460"/>
-      <c r="C128" s="461"/>
-      <c r="D128" s="461"/>
-      <c r="E128" s="461"/>
-      <c r="F128" s="461"/>
-      <c r="G128" s="459"/>
-      <c r="H128" s="459"/>
+      <c r="B128" s="467"/>
+      <c r="C128" s="468"/>
+      <c r="D128" s="468"/>
+      <c r="E128" s="468"/>
+      <c r="F128" s="468"/>
+      <c r="G128" s="466"/>
+      <c r="H128" s="466"/>
     </row>
     <row r="129" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="114" t="s">
         <v>215</v>
       </c>
-      <c r="C129" s="462"/>
-      <c r="D129" s="463"/>
-      <c r="E129" s="461"/>
-      <c r="F129" s="461"/>
-      <c r="G129" s="459"/>
-      <c r="H129" s="459"/>
+      <c r="C129" s="469"/>
+      <c r="D129" s="470"/>
+      <c r="E129" s="468"/>
+      <c r="F129" s="468"/>
+      <c r="G129" s="466"/>
+      <c r="H129" s="466"/>
     </row>
     <row r="130" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B130" s="52"/>
@@ -66022,8 +66294,8 @@
       <c r="B132" s="107" t="s">
         <v>216</v>
       </c>
-      <c r="C132" s="456"/>
-      <c r="D132" s="457"/>
+      <c r="C132" s="463"/>
+      <c r="D132" s="464"/>
       <c r="E132" s="52"/>
       <c r="F132" s="52"/>
       <c r="G132" s="52"/>
@@ -66356,14 +66628,14 @@
     </row>
     <row r="165" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="326"/>
-      <c r="C165" s="468" t="s">
+      <c r="C165" s="459" t="s">
         <v>843</v>
       </c>
-      <c r="D165" s="468"/>
-      <c r="E165" s="468"/>
-      <c r="F165" s="468"/>
-      <c r="G165" s="468"/>
-      <c r="H165" s="468"/>
+      <c r="D165" s="459"/>
+      <c r="E165" s="459"/>
+      <c r="F165" s="459"/>
+      <c r="G165" s="459"/>
+      <c r="H165" s="459"/>
       <c r="I165" s="321"/>
     </row>
     <row r="166" spans="2:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -66598,14 +66870,14 @@
     </row>
     <row r="183" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="326"/>
-      <c r="C183" s="469" t="s">
+      <c r="C183" s="460" t="s">
         <v>866</v>
       </c>
-      <c r="D183" s="469"/>
-      <c r="E183" s="469"/>
-      <c r="F183" s="469"/>
-      <c r="G183" s="469"/>
-      <c r="H183" s="469"/>
+      <c r="D183" s="460"/>
+      <c r="E183" s="460"/>
+      <c r="F183" s="460"/>
+      <c r="G183" s="460"/>
+      <c r="H183" s="460"/>
       <c r="I183" s="321"/>
     </row>
     <row r="184" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -66620,14 +66892,14 @@
     </row>
     <row r="185" spans="2:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="326"/>
-      <c r="C185" s="470" t="s">
+      <c r="C185" s="461" t="s">
         <v>867</v>
       </c>
-      <c r="D185" s="470"/>
-      <c r="E185" s="470"/>
-      <c r="F185" s="470"/>
-      <c r="G185" s="470"/>
-      <c r="H185" s="470"/>
+      <c r="D185" s="461"/>
+      <c r="E185" s="461"/>
+      <c r="F185" s="461"/>
+      <c r="G185" s="461"/>
+      <c r="H185" s="461"/>
       <c r="I185" s="321"/>
     </row>
     <row r="186" spans="2:9" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -67240,14 +67512,14 @@
     </row>
     <row r="219" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B219" s="326"/>
-      <c r="C219" s="469" t="s">
+      <c r="C219" s="460" t="s">
         <v>936</v>
       </c>
-      <c r="D219" s="469"/>
-      <c r="E219" s="469"/>
-      <c r="F219" s="469"/>
-      <c r="G219" s="469"/>
-      <c r="H219" s="469"/>
+      <c r="D219" s="460"/>
+      <c r="E219" s="460"/>
+      <c r="F219" s="460"/>
+      <c r="G219" s="460"/>
+      <c r="H219" s="460"/>
       <c r="I219" s="321"/>
     </row>
     <row r="220" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -67272,13 +67544,13 @@
     </row>
     <row r="222" spans="2:9" ht="27" x14ac:dyDescent="0.5">
       <c r="B222" s="326"/>
-      <c r="C222" s="464" t="s">
+      <c r="C222" s="455" t="s">
         <v>937</v>
       </c>
-      <c r="D222" s="465"/>
-      <c r="E222" s="465"/>
-      <c r="F222" s="465"/>
-      <c r="G222" s="466"/>
+      <c r="D222" s="456"/>
+      <c r="E222" s="456"/>
+      <c r="F222" s="456"/>
+      <c r="G222" s="457"/>
       <c r="H222" s="341"/>
       <c r="I222" s="321"/>
     </row>
@@ -67454,14 +67726,14 @@
     </row>
     <row r="238" spans="2:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B238" s="326"/>
-      <c r="C238" s="467" t="s">
+      <c r="C238" s="458" t="s">
         <v>946</v>
       </c>
-      <c r="D238" s="467"/>
-      <c r="E238" s="467"/>
-      <c r="F238" s="467"/>
-      <c r="G238" s="467"/>
-      <c r="H238" s="467"/>
+      <c r="D238" s="458"/>
+      <c r="E238" s="458"/>
+      <c r="F238" s="458"/>
+      <c r="G238" s="458"/>
+      <c r="H238" s="458"/>
       <c r="I238" s="321"/>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
@@ -67609,12 +67881,6 @@
     <row r="246" spans="2:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C222:G222"/>
-    <mergeCell ref="C238:H238"/>
-    <mergeCell ref="C165:H165"/>
-    <mergeCell ref="C183:H183"/>
-    <mergeCell ref="C185:H185"/>
-    <mergeCell ref="C219:H219"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="C132:D132"/>
     <mergeCell ref="B125:B126"/>
@@ -67626,6 +67892,12 @@
     <mergeCell ref="E127:F128"/>
     <mergeCell ref="C129:D129"/>
     <mergeCell ref="E129:F129"/>
+    <mergeCell ref="C222:G222"/>
+    <mergeCell ref="C238:H238"/>
+    <mergeCell ref="C165:H165"/>
+    <mergeCell ref="C183:H183"/>
+    <mergeCell ref="C185:H185"/>
+    <mergeCell ref="C219:H219"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
